--- a/quantifyVagusNerve/Plots/T4transport/complete_local_linhom_sector_vertical1_2/complete_local_linhom_sector_vertical1_2_all_result.xlsx
+++ b/quantifyVagusNerve/Plots/T4transport/complete_local_linhom_sector_vertical1_2/complete_local_linhom_sector_vertical1_2_all_result.xlsx
@@ -344,88 +344,88 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.500027214375024</v>
+        <v>0.0976786495727083</v>
       </c>
       <c r="C1" t="n">
-        <v>0.484118476475651</v>
+        <v>0.268982981081432</v>
       </c>
       <c r="D1" t="n">
-        <v>0.442121661265159</v>
+        <v>0.289971715218653</v>
       </c>
       <c r="E1" t="n">
-        <v>0.455025655181023</v>
+        <v>0.276833417944364</v>
       </c>
       <c r="F1" t="n">
-        <v>0.437671123792191</v>
+        <v>0.0877303931386321</v>
       </c>
       <c r="G1" t="n">
-        <v>0.420453975856468</v>
+        <v>0.132856302654126</v>
       </c>
       <c r="H1" t="n">
-        <v>0.509887664443146</v>
+        <v>0.0854695535033012</v>
       </c>
       <c r="I1" t="n">
-        <v>0.425551054728666</v>
+        <v>0.140155380897077</v>
       </c>
       <c r="J1" t="n">
-        <v>0.645454671026651</v>
+        <v>0.192973329161134</v>
       </c>
       <c r="K1" t="n">
-        <v>0.491759402651914</v>
+        <v>0.055642536992427</v>
       </c>
       <c r="L1" t="n">
-        <v>0.479666530053765</v>
+        <v>0.158354291371071</v>
       </c>
       <c r="M1" t="n">
-        <v>0.462933150832799</v>
+        <v>0.0864502546593144</v>
       </c>
       <c r="N1" t="n">
-        <v>0.44922804998482</v>
+        <v>0.0892052335279463</v>
       </c>
       <c r="O1" t="n">
-        <v>0.475763655470678</v>
+        <v>0.102543627375461</v>
       </c>
       <c r="P1" t="n">
-        <v>0.444565077140107</v>
+        <v>0.0576256498333548</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.482017178266609</v>
+        <v>0.121750203323755</v>
       </c>
       <c r="R1" t="n">
-        <v>0.421698776341685</v>
+        <v>0.0581742959725308</v>
       </c>
       <c r="S1" t="n">
-        <v>0.472624554339578</v>
+        <v>0.109102676307904</v>
       </c>
       <c r="T1" t="n">
-        <v>0.497080028775643</v>
+        <v>0.0497784861795028</v>
       </c>
       <c r="U1" t="n">
-        <v>0.429568523620822</v>
+        <v>0.0395941513022276</v>
       </c>
       <c r="V1" t="n">
-        <v>0.443661542123475</v>
+        <v>0.0470239686942628</v>
       </c>
       <c r="W1" t="n">
-        <v>0.433902689905571</v>
+        <v>0.0620417812722219</v>
       </c>
       <c r="X1" t="n">
-        <v>0.43739475416898</v>
+        <v>0.0449517755769297</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.440677140633151</v>
+        <v>0.0766094268953511</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.453390693092912</v>
+        <v>0.0736961992366103</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.479412931268811</v>
+        <v>0.0868091232663211</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.466665090984067</v>
+        <v>0.0510908215262074</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.511434101334852</v>
+        <v>0.119905273540687</v>
       </c>
     </row>
     <row r="2">
@@ -436,85 +436,85 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.498693203784659</v>
+        <v>0.283604402306412</v>
       </c>
       <c r="D2" t="n">
-        <v>0.464929749345161</v>
+        <v>0.303082204090035</v>
       </c>
       <c r="E2" t="n">
-        <v>0.482658561968818</v>
+        <v>0.290442694373141</v>
       </c>
       <c r="F2" t="n">
-        <v>0.466439207262388</v>
+        <v>0.126287241161693</v>
       </c>
       <c r="G2" t="n">
-        <v>0.44562560764832</v>
+        <v>0.160543883616541</v>
       </c>
       <c r="H2" t="n">
-        <v>0.534195556237199</v>
+        <v>0.123699625783868</v>
       </c>
       <c r="I2" t="n">
-        <v>0.451920596232139</v>
+        <v>0.166185895302127</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6477910940781</v>
+        <v>0.211799415572795</v>
       </c>
       <c r="K2" t="n">
-        <v>0.551659118031387</v>
+        <v>0.107364479894918</v>
       </c>
       <c r="L2" t="n">
-        <v>0.50409931644534</v>
+        <v>0.181761669306359</v>
       </c>
       <c r="M2" t="n">
-        <v>0.505382225166838</v>
+        <v>0.125087257196101</v>
       </c>
       <c r="N2" t="n">
-        <v>0.458221837949126</v>
+        <v>0.126113269851005</v>
       </c>
       <c r="O2" t="n">
-        <v>0.492445484564048</v>
+        <v>0.136142710959763</v>
       </c>
       <c r="P2" t="n">
-        <v>0.478055613347155</v>
+        <v>0.106183700779518</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.492048693880425</v>
+        <v>0.150791304018368</v>
       </c>
       <c r="R2" t="n">
-        <v>0.466680760634969</v>
+        <v>0.108265737770564</v>
       </c>
       <c r="S2" t="n">
-        <v>0.493411202784196</v>
+        <v>0.141279996281846</v>
       </c>
       <c r="T2" t="n">
-        <v>0.498734286133889</v>
+        <v>0.102879416285072</v>
       </c>
       <c r="U2" t="n">
-        <v>0.462319320817347</v>
+        <v>0.0977675672357596</v>
       </c>
       <c r="V2" t="n">
-        <v>0.472577995724559</v>
+        <v>0.101245688589314</v>
       </c>
       <c r="W2" t="n">
-        <v>0.459716272519539</v>
+        <v>0.108253302626221</v>
       </c>
       <c r="X2" t="n">
-        <v>0.445228202177356</v>
+        <v>0.100336363935965</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.463640793546788</v>
+        <v>0.117607720311051</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.474672571195046</v>
+        <v>0.116061232132068</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.504497754500549</v>
+        <v>0.124949655213839</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.489529718136511</v>
+        <v>0.102818807008541</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.531887411184577</v>
+        <v>0.150475390038236</v>
       </c>
     </row>
     <row r="3">
@@ -528,82 +528,82 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.441796690446087</v>
+        <v>0.383980709382727</v>
       </c>
       <c r="E3" t="n">
-        <v>0.459549536138985</v>
+        <v>0.373712948914002</v>
       </c>
       <c r="F3" t="n">
-        <v>0.443767476364203</v>
+        <v>0.279684712843492</v>
       </c>
       <c r="G3" t="n">
-        <v>0.419926028033467</v>
+        <v>0.295779953851512</v>
       </c>
       <c r="H3" t="n">
-        <v>0.517275473842632</v>
+        <v>0.280208115939417</v>
       </c>
       <c r="I3" t="n">
-        <v>0.427851294099578</v>
+        <v>0.298292970986894</v>
       </c>
       <c r="J3" t="n">
-        <v>0.636755510734953</v>
+        <v>0.324408195637879</v>
       </c>
       <c r="K3" t="n">
-        <v>0.523556900391546</v>
+        <v>0.271058508768192</v>
       </c>
       <c r="L3" t="n">
-        <v>0.484281887567485</v>
+        <v>0.308076503890253</v>
       </c>
       <c r="M3" t="n">
-        <v>0.483234405687388</v>
+        <v>0.278911677280642</v>
       </c>
       <c r="N3" t="n">
-        <v>0.436973735553426</v>
+        <v>0.282467696480827</v>
       </c>
       <c r="O3" t="n">
-        <v>0.472372911541829</v>
+        <v>0.286161922975397</v>
       </c>
       <c r="P3" t="n">
-        <v>0.452590227187365</v>
+        <v>0.272294796056171</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.473458571762633</v>
+        <v>0.291853270865313</v>
       </c>
       <c r="R3" t="n">
-        <v>0.44007664445116</v>
+        <v>0.272657371951827</v>
       </c>
       <c r="S3" t="n">
-        <v>0.471925209511403</v>
+        <v>0.286493046891518</v>
       </c>
       <c r="T3" t="n">
-        <v>0.48155298969406</v>
+        <v>0.272654993166404</v>
       </c>
       <c r="U3" t="n">
-        <v>0.440427456332511</v>
+        <v>0.270051464314068</v>
       </c>
       <c r="V3" t="n">
-        <v>0.449263701322449</v>
+        <v>0.272406628767703</v>
       </c>
       <c r="W3" t="n">
-        <v>0.434445136694819</v>
+        <v>0.274056277369578</v>
       </c>
       <c r="X3" t="n">
-        <v>0.422981586236108</v>
+        <v>0.271663076357743</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.439638770985408</v>
+        <v>0.278536483559623</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.45163230585616</v>
+        <v>0.275957422746838</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.484503225032603</v>
+        <v>0.278870516486722</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.468136048329453</v>
+        <v>0.271742738587862</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.525345165258658</v>
+        <v>0.290319635882725</v>
       </c>
     </row>
     <row r="4">
@@ -620,79 +620,79 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.419457318350436</v>
+        <v>0.389153057258085</v>
       </c>
       <c r="F4" t="n">
-        <v>0.400792885120766</v>
+        <v>0.30143970289854</v>
       </c>
       <c r="G4" t="n">
-        <v>0.373408916287065</v>
+        <v>0.316097785025748</v>
       </c>
       <c r="H4" t="n">
-        <v>0.497976096596452</v>
+        <v>0.302312742577425</v>
       </c>
       <c r="I4" t="n">
-        <v>0.381387566521554</v>
+        <v>0.31961497679849</v>
       </c>
       <c r="J4" t="n">
-        <v>0.620305800576211</v>
+        <v>0.346296602555703</v>
       </c>
       <c r="K4" t="n">
-        <v>0.493640066227098</v>
+        <v>0.292800696996677</v>
       </c>
       <c r="L4" t="n">
-        <v>0.446520568753657</v>
+        <v>0.324473451182986</v>
       </c>
       <c r="M4" t="n">
-        <v>0.446473812127431</v>
+        <v>0.303887167902036</v>
       </c>
       <c r="N4" t="n">
-        <v>0.390867982398413</v>
+        <v>0.305643718291148</v>
       </c>
       <c r="O4" t="n">
-        <v>0.43366769859115</v>
+        <v>0.304388725366983</v>
       </c>
       <c r="P4" t="n">
-        <v>0.411117200540533</v>
+        <v>0.296118410227074</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.433103476394522</v>
+        <v>0.314191675752652</v>
       </c>
       <c r="R4" t="n">
-        <v>0.407701946696146</v>
+        <v>0.294246149722096</v>
       </c>
       <c r="S4" t="n">
-        <v>0.432228470128201</v>
+        <v>0.309100146430988</v>
       </c>
       <c r="T4" t="n">
-        <v>0.445085715847698</v>
+        <v>0.294752452874365</v>
       </c>
       <c r="U4" t="n">
-        <v>0.395222913770088</v>
+        <v>0.29603710549183</v>
       </c>
       <c r="V4" t="n">
-        <v>0.404896292307052</v>
+        <v>0.291779738451224</v>
       </c>
       <c r="W4" t="n">
-        <v>0.388433153421804</v>
+        <v>0.29808032871927</v>
       </c>
       <c r="X4" t="n">
-        <v>0.370567373190813</v>
+        <v>0.291146131408841</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.395007516857442</v>
+        <v>0.300911903668989</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.408048656635046</v>
+        <v>0.301543931242489</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.449263851229189</v>
+        <v>0.304101963675829</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.428847918563937</v>
+        <v>0.295921323224783</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.484577383044342</v>
+        <v>0.310804927992214</v>
       </c>
     </row>
     <row r="5">
@@ -712,76 +712,76 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.42122231239121</v>
+        <v>0.28198863173361</v>
       </c>
       <c r="G5" t="n">
-        <v>0.395376178483539</v>
+        <v>0.297495107594216</v>
       </c>
       <c r="H5" t="n">
-        <v>0.500083973092773</v>
+        <v>0.279372323746322</v>
       </c>
       <c r="I5" t="n">
-        <v>0.405449750531696</v>
+        <v>0.300496493772063</v>
       </c>
       <c r="J5" t="n">
-        <v>0.623666238313682</v>
+        <v>0.326325429499919</v>
       </c>
       <c r="K5" t="n">
-        <v>0.50930376372095</v>
+        <v>0.273469680399345</v>
       </c>
       <c r="L5" t="n">
-        <v>0.463235609543439</v>
+        <v>0.306572464095433</v>
       </c>
       <c r="M5" t="n">
-        <v>0.46745055136224</v>
+        <v>0.286461108885115</v>
       </c>
       <c r="N5" t="n">
-        <v>0.414596438532583</v>
+        <v>0.288334817808702</v>
       </c>
       <c r="O5" t="n">
-        <v>0.45383910408674</v>
+        <v>0.285358058107701</v>
       </c>
       <c r="P5" t="n">
-        <v>0.431731284386884</v>
+        <v>0.27505113710533</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.453577736876873</v>
+        <v>0.294259083032706</v>
       </c>
       <c r="R5" t="n">
-        <v>0.418400457892586</v>
+        <v>0.274398277147359</v>
       </c>
       <c r="S5" t="n">
-        <v>0.461022635177733</v>
+        <v>0.288283663760143</v>
       </c>
       <c r="T5" t="n">
-        <v>0.463199325279535</v>
+        <v>0.27938191430622</v>
       </c>
       <c r="U5" t="n">
-        <v>0.417499305233491</v>
+        <v>0.277757623753907</v>
       </c>
       <c r="V5" t="n">
-        <v>0.425638378031402</v>
+        <v>0.271617585717355</v>
       </c>
       <c r="W5" t="n">
-        <v>0.410886772586278</v>
+        <v>0.27693569819586</v>
       </c>
       <c r="X5" t="n">
-        <v>0.396523030585926</v>
+        <v>0.271228482762809</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.416051632594069</v>
+        <v>0.277880241189137</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.432819450977386</v>
+        <v>0.284315344275975</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.46696492232261</v>
+        <v>0.287083966073842</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.448933024282563</v>
+        <v>0.274469572704292</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.500319425872665</v>
+        <v>0.297210634904697</v>
       </c>
     </row>
     <row r="6">
@@ -804,73 +804,73 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.374732142985272</v>
+        <v>0.154755340644644</v>
       </c>
       <c r="H6" t="n">
-        <v>0.485059553888663</v>
+        <v>0.116302069958393</v>
       </c>
       <c r="I6" t="n">
-        <v>0.384452220771587</v>
+        <v>0.160476292750858</v>
       </c>
       <c r="J6" t="n">
-        <v>0.616952739403786</v>
+        <v>0.207979805334366</v>
       </c>
       <c r="K6" t="n">
-        <v>0.499723339015678</v>
+        <v>0.097912923067623</v>
       </c>
       <c r="L6" t="n">
-        <v>0.447749214108533</v>
+        <v>0.176347044474298</v>
       </c>
       <c r="M6" t="n">
-        <v>0.446812459377908</v>
+        <v>0.11779481970085</v>
       </c>
       <c r="N6" t="n">
-        <v>0.392194907763375</v>
+        <v>0.119030763652055</v>
       </c>
       <c r="O6" t="n">
-        <v>0.435007813450506</v>
+        <v>0.129419982366313</v>
       </c>
       <c r="P6" t="n">
-        <v>0.412181431109056</v>
+        <v>0.0974481864198865</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.437873834234462</v>
+        <v>0.145004881718417</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3975850386726</v>
+        <v>0.099389357833893</v>
       </c>
       <c r="S6" t="n">
-        <v>0.436521857630845</v>
+        <v>0.134738487648024</v>
       </c>
       <c r="T6" t="n">
-        <v>0.449026919546452</v>
+        <v>0.0945661788484153</v>
       </c>
       <c r="U6" t="n">
-        <v>0.391102060138833</v>
+        <v>0.0895942178073856</v>
       </c>
       <c r="V6" t="n">
-        <v>0.410126770077424</v>
+        <v>0.0920754777086646</v>
       </c>
       <c r="W6" t="n">
-        <v>0.389744317768533</v>
+        <v>0.100341158863159</v>
       </c>
       <c r="X6" t="n">
-        <v>0.380634048182937</v>
+        <v>0.0907594902076264</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.395600114065804</v>
+        <v>0.109827422271814</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.410702965398563</v>
+        <v>0.10864622185461</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.451395929201306</v>
+        <v>0.117992123421294</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.433015814080615</v>
+        <v>0.094252423819389</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.483660658637264</v>
+        <v>0.14427127198402</v>
       </c>
     </row>
     <row r="7">
@@ -896,70 +896,70 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.464968461799006</v>
+        <v>0.154487650846365</v>
       </c>
       <c r="I7" t="n">
-        <v>0.355595880590293</v>
+        <v>0.190041119606878</v>
       </c>
       <c r="J7" t="n">
-        <v>0.608282784162089</v>
+        <v>0.230975012128553</v>
       </c>
       <c r="K7" t="n">
-        <v>0.484485573444141</v>
+        <v>0.139036750307776</v>
       </c>
       <c r="L7" t="n">
-        <v>0.42399238869524</v>
+        <v>0.202060664127954</v>
       </c>
       <c r="M7" t="n">
-        <v>0.425364125759386</v>
+        <v>0.153633262302719</v>
       </c>
       <c r="N7" t="n">
-        <v>0.364424855914667</v>
+        <v>0.155758304303962</v>
       </c>
       <c r="O7" t="n">
-        <v>0.410480903366438</v>
+        <v>0.164818322104587</v>
       </c>
       <c r="P7" t="n">
-        <v>0.387625125369082</v>
+        <v>0.139920124529906</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.410812454597728</v>
+        <v>0.175871293280266</v>
       </c>
       <c r="R7" t="n">
-        <v>0.370880885752294</v>
+        <v>0.140249352250187</v>
       </c>
       <c r="S7" t="n">
-        <v>0.411683616084232</v>
+        <v>0.169176775922936</v>
       </c>
       <c r="T7" t="n">
-        <v>0.424152868124468</v>
+        <v>0.137443451593283</v>
       </c>
       <c r="U7" t="n">
-        <v>0.365957676311901</v>
+        <v>0.133994707459691</v>
       </c>
       <c r="V7" t="n">
-        <v>0.384056454574214</v>
+        <v>0.137336964902291</v>
       </c>
       <c r="W7" t="n">
-        <v>0.361694411993551</v>
+        <v>0.142283255749601</v>
       </c>
       <c r="X7" t="n">
-        <v>0.346730838875297</v>
+        <v>0.137100490647288</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.368855686464781</v>
+        <v>0.148949147933773</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.384580987392044</v>
+        <v>0.147206486146211</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.429482745444467</v>
+        <v>0.154282600010621</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.408507489257519</v>
+        <v>0.137883139718226</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.474826405701815</v>
+        <v>0.174460594254248</v>
       </c>
     </row>
     <row r="8">
@@ -988,67 +988,67 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.473659160716445</v>
+        <v>0.15930703665026</v>
       </c>
       <c r="J8" t="n">
-        <v>0.655485270807019</v>
+        <v>0.207014607099446</v>
       </c>
       <c r="K8" t="n">
-        <v>0.554364400165146</v>
+        <v>0.0939954822955957</v>
       </c>
       <c r="L8" t="n">
-        <v>0.514251554856755</v>
+        <v>0.174430013400478</v>
       </c>
       <c r="M8" t="n">
-        <v>0.511305027100154</v>
+        <v>0.114178709564015</v>
       </c>
       <c r="N8" t="n">
-        <v>0.474768679859321</v>
+        <v>0.115655293278368</v>
       </c>
       <c r="O8" t="n">
-        <v>0.512391193266139</v>
+        <v>0.127739443940547</v>
       </c>
       <c r="P8" t="n">
-        <v>0.487433018459284</v>
+        <v>0.0930705847263887</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.512652523060278</v>
+        <v>0.141991939289125</v>
       </c>
       <c r="R8" t="n">
-        <v>0.475807610541189</v>
+        <v>0.0958313448657569</v>
       </c>
       <c r="S8" t="n">
-        <v>0.512539271408271</v>
+        <v>0.133499962216027</v>
       </c>
       <c r="T8" t="n">
-        <v>0.523782170226721</v>
+        <v>0.0912778932971207</v>
       </c>
       <c r="U8" t="n">
-        <v>0.47258526247842</v>
+        <v>0.0839547001140426</v>
       </c>
       <c r="V8" t="n">
-        <v>0.492240874915661</v>
+        <v>0.0900248398054686</v>
       </c>
       <c r="W8" t="n">
-        <v>0.47179911830977</v>
+        <v>0.096449102649501</v>
       </c>
       <c r="X8" t="n">
-        <v>0.458296480300859</v>
+        <v>0.0888807679988647</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.476078750470431</v>
+        <v>0.10806844117578</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.491202826792408</v>
+        <v>0.105544391866797</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.522202824375528</v>
+        <v>0.114720968474092</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.5108583996636</v>
+        <v>0.0896638486551158</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.548251289950918</v>
+        <v>0.141424144874077</v>
       </c>
     </row>
     <row r="9">
@@ -1080,64 +1080,64 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.615280264249064</v>
+        <v>0.234198561497046</v>
       </c>
       <c r="K9" t="n">
-        <v>0.487729831364316</v>
+        <v>0.144411619413695</v>
       </c>
       <c r="L9" t="n">
-        <v>0.434093575603534</v>
+        <v>0.206009469059045</v>
       </c>
       <c r="M9" t="n">
-        <v>0.434019372461205</v>
+        <v>0.15741355534618</v>
       </c>
       <c r="N9" t="n">
-        <v>0.376273138198693</v>
+        <v>0.159503983510223</v>
       </c>
       <c r="O9" t="n">
-        <v>0.420506619258775</v>
+        <v>0.168542817522626</v>
       </c>
       <c r="P9" t="n">
-        <v>0.395685326707976</v>
+        <v>0.146230011753851</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.419689091857258</v>
+        <v>0.181182229790342</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3807891012185</v>
+        <v>0.145427418952154</v>
       </c>
       <c r="S9" t="n">
-        <v>0.418962282291575</v>
+        <v>0.172839810568693</v>
       </c>
       <c r="T9" t="n">
-        <v>0.431511671912793</v>
+        <v>0.142912553308925</v>
       </c>
       <c r="U9" t="n">
-        <v>0.376852827812217</v>
+        <v>0.138285979378112</v>
       </c>
       <c r="V9" t="n">
-        <v>0.392481590383732</v>
+        <v>0.142513626086505</v>
       </c>
       <c r="W9" t="n">
-        <v>0.371583450032074</v>
+        <v>0.148564980490155</v>
       </c>
       <c r="X9" t="n">
-        <v>0.356973692871033</v>
+        <v>0.141689846719092</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.379366061049783</v>
+        <v>0.154973284518379</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.393196406571202</v>
+        <v>0.151465495112773</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.438980292646681</v>
+        <v>0.159221540035824</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.41511746532597</v>
+        <v>0.144364028193576</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.47395875445152</v>
+        <v>0.178953388600495</v>
       </c>
     </row>
     <row r="10">
@@ -1172,61 +1172,61 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.670651629993428</v>
+        <v>0.198581116631155</v>
       </c>
       <c r="L10" t="n">
-        <v>0.641807603235687</v>
+        <v>0.244633594859823</v>
       </c>
       <c r="M10" t="n">
-        <v>0.641751025599672</v>
+        <v>0.208048538974688</v>
       </c>
       <c r="N10" t="n">
-        <v>0.612944245677326</v>
+        <v>0.207985008148956</v>
       </c>
       <c r="O10" t="n">
-        <v>0.637873964429542</v>
+        <v>0.214344888039095</v>
       </c>
       <c r="P10" t="n">
-        <v>0.626978134907952</v>
+        <v>0.197508013495008</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.637228594354246</v>
+        <v>0.223759112935619</v>
       </c>
       <c r="R10" t="n">
-        <v>0.619238971446716</v>
+        <v>0.198362760854464</v>
       </c>
       <c r="S10" t="n">
-        <v>0.638606232255157</v>
+        <v>0.217678988016857</v>
       </c>
       <c r="T10" t="n">
-        <v>0.635773594451232</v>
+        <v>0.195362841284624</v>
       </c>
       <c r="U10" t="n">
-        <v>0.614313454545336</v>
+        <v>0.192975376881782</v>
       </c>
       <c r="V10" t="n">
-        <v>0.62346199363185</v>
+        <v>0.194845157060284</v>
       </c>
       <c r="W10" t="n">
-        <v>0.61575311484952</v>
+        <v>0.198532453116099</v>
       </c>
       <c r="X10" t="n">
-        <v>0.606835008012341</v>
+        <v>0.194340582892473</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.614164513940747</v>
+        <v>0.204107348777004</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.627586205807248</v>
+        <v>0.203505495265773</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.639339785266861</v>
+        <v>0.207467180770957</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.635894824483078</v>
+        <v>0.195745550514774</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.654980086543886</v>
+        <v>0.223024640247238</v>
       </c>
     </row>
     <row r="11">
@@ -1264,58 +1264,58 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.53987289615119</v>
+        <v>0.164619905832411</v>
       </c>
       <c r="M11" t="n">
-        <v>0.515330264713245</v>
+        <v>0.0944634492359571</v>
       </c>
       <c r="N11" t="n">
-        <v>0.487718950219861</v>
+        <v>0.0978020538173565</v>
       </c>
       <c r="O11" t="n">
-        <v>0.519932163766854</v>
+        <v>0.109143341633396</v>
       </c>
       <c r="P11" t="n">
-        <v>0.487534330646026</v>
+        <v>0.0675933361339196</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.52074998733582</v>
+        <v>0.127587614039611</v>
       </c>
       <c r="R11" t="n">
-        <v>0.480148369719016</v>
+        <v>0.0721024087841405</v>
       </c>
       <c r="S11" t="n">
-        <v>0.510495873073356</v>
+        <v>0.114791568508703</v>
       </c>
       <c r="T11" t="n">
-        <v>0.538917136178572</v>
+        <v>0.0678915803589488</v>
       </c>
       <c r="U11" t="n">
-        <v>0.507778602320943</v>
+        <v>0.0569588143645824</v>
       </c>
       <c r="V11" t="n">
-        <v>0.476386628215765</v>
+        <v>0.060037329785676</v>
       </c>
       <c r="W11" t="n">
-        <v>0.479163100813827</v>
+        <v>0.0735985418607855</v>
       </c>
       <c r="X11" t="n">
-        <v>0.462053277264195</v>
+        <v>0.0583088280168166</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.488567233721026</v>
+        <v>0.0857749116260657</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.510456174294916</v>
+        <v>0.0843711579711184</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.525095293802731</v>
+        <v>0.0954558656279494</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.506765634957564</v>
+        <v>0.0643838785754058</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.554751354074911</v>
+        <v>0.127236547648628</v>
       </c>
     </row>
     <row r="12">
@@ -1356,55 +1356,55 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.488980216549544</v>
+        <v>0.175381406922408</v>
       </c>
       <c r="N12" t="n">
-        <v>0.439432877645285</v>
+        <v>0.177098544606901</v>
       </c>
       <c r="O12" t="n">
-        <v>0.479600753394348</v>
+        <v>0.184943478358031</v>
       </c>
       <c r="P12" t="n">
-        <v>0.457480390048817</v>
+        <v>0.164067421256729</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.479814274721391</v>
+        <v>0.195839508370848</v>
       </c>
       <c r="R12" t="n">
-        <v>0.445677179509554</v>
+        <v>0.163716674547491</v>
       </c>
       <c r="S12" t="n">
-        <v>0.48014757205127</v>
+        <v>0.18821269796371</v>
       </c>
       <c r="T12" t="n">
-        <v>0.490951709796939</v>
+        <v>0.162498530646194</v>
       </c>
       <c r="U12" t="n">
-        <v>0.440909408483026</v>
+        <v>0.15834266965602</v>
       </c>
       <c r="V12" t="n">
-        <v>0.459978571661288</v>
+        <v>0.160949532779689</v>
       </c>
       <c r="W12" t="n">
-        <v>0.437717882303499</v>
+        <v>0.165713080511735</v>
       </c>
       <c r="X12" t="n">
-        <v>0.424670316352001</v>
+        <v>0.161610216990989</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.443016300977424</v>
+        <v>0.171518791676211</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.457884983871446</v>
+        <v>0.169936613999626</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.492744752000317</v>
+        <v>0.175932534584153</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.477105789872485</v>
+        <v>0.161778890771007</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.521892304029811</v>
+        <v>0.194647500438487</v>
       </c>
     </row>
     <row r="13">
@@ -1448,52 +1448,52 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.446864681102817</v>
+        <v>0.116555243920475</v>
       </c>
       <c r="O13" t="n">
-        <v>0.481688102777685</v>
+        <v>0.128024149365322</v>
       </c>
       <c r="P13" t="n">
-        <v>0.451286810746127</v>
+        <v>0.0942282388133565</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.483691768587209</v>
+        <v>0.14304388918471</v>
       </c>
       <c r="R13" t="n">
-        <v>0.439769530796733</v>
+        <v>0.0971153868059306</v>
       </c>
       <c r="S13" t="n">
-        <v>0.47472331271003</v>
+        <v>0.132546736857901</v>
       </c>
       <c r="T13" t="n">
-        <v>0.499289736711584</v>
+        <v>0.0941362742169934</v>
       </c>
       <c r="U13" t="n">
-        <v>0.442367645297469</v>
+        <v>0.0854058896725401</v>
       </c>
       <c r="V13" t="n">
-        <v>0.453595482895376</v>
+        <v>0.0902499576592061</v>
       </c>
       <c r="W13" t="n">
-        <v>0.434251574754484</v>
+        <v>0.0972856686979192</v>
       </c>
       <c r="X13" t="n">
-        <v>0.428266124315779</v>
+        <v>0.0894617853604717</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.439247450300585</v>
+        <v>0.107017467007763</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.454200843138923</v>
+        <v>0.107068707647122</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.49377581058061</v>
+        <v>0.116337749271701</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.471061395095611</v>
+        <v>0.0910170333074424</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.52300460031892</v>
+        <v>0.142078830274021</v>
       </c>
     </row>
     <row r="14">
@@ -1540,49 +1540,49 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.427158899888185</v>
+        <v>0.13025372329734</v>
       </c>
       <c r="P14" t="n">
-        <v>0.405690279789225</v>
+        <v>0.098827403416396</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.428207382766581</v>
+        <v>0.145649420328699</v>
       </c>
       <c r="R14" t="n">
-        <v>0.390958299057596</v>
+        <v>0.100529160695714</v>
       </c>
       <c r="S14" t="n">
-        <v>0.429095249246083</v>
+        <v>0.135967775270237</v>
       </c>
       <c r="T14" t="n">
-        <v>0.437588989898197</v>
+        <v>0.0944241064415228</v>
       </c>
       <c r="U14" t="n">
-        <v>0.386019027207732</v>
+        <v>0.0888020079608788</v>
       </c>
       <c r="V14" t="n">
-        <v>0.402781361908815</v>
+        <v>0.0932574141181981</v>
       </c>
       <c r="W14" t="n">
-        <v>0.381031263980844</v>
+        <v>0.100804469367396</v>
       </c>
       <c r="X14" t="n">
-        <v>0.36565841535156</v>
+        <v>0.0921458473924078</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.386829828632906</v>
+        <v>0.110423752481663</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.40116298666277</v>
+        <v>0.108722614560083</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.444786327489766</v>
+        <v>0.118377511649295</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.424899367278981</v>
+        <v>0.094833046803166</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.476916599326348</v>
+        <v>0.144913639268088</v>
       </c>
     </row>
     <row r="15">
@@ -1632,46 +1632,46 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.4452323318751</v>
+        <v>0.110705255171197</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.464836774519945</v>
+        <v>0.154066599699417</v>
       </c>
       <c r="R15" t="n">
-        <v>0.431681609601815</v>
+        <v>0.111719275042516</v>
       </c>
       <c r="S15" t="n">
-        <v>0.464940515883074</v>
+        <v>0.144533268800977</v>
       </c>
       <c r="T15" t="n">
-        <v>0.476433408242955</v>
+        <v>0.106992058496788</v>
       </c>
       <c r="U15" t="n">
-        <v>0.427361196979669</v>
+        <v>0.102848518848122</v>
       </c>
       <c r="V15" t="n">
-        <v>0.443036377451513</v>
+        <v>0.106115179996598</v>
       </c>
       <c r="W15" t="n">
-        <v>0.424084518053408</v>
+        <v>0.113027581134655</v>
       </c>
       <c r="X15" t="n">
-        <v>0.413730902153964</v>
+        <v>0.105153463081597</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.430287428635883</v>
+        <v>0.121552688552463</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.440880538824054</v>
+        <v>0.120462234765426</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.480331495440211</v>
+        <v>0.128531604751537</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.462313072241986</v>
+        <v>0.1076639245745</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.51105202843578</v>
+        <v>0.15276010633545</v>
       </c>
     </row>
     <row r="16">
@@ -1724,43 +1724,43 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.445997179458648</v>
+        <v>0.128901709091707</v>
       </c>
       <c r="R16" t="n">
-        <v>0.40957617412289</v>
+        <v>0.0746023007540494</v>
       </c>
       <c r="S16" t="n">
-        <v>0.444121581939108</v>
+        <v>0.117180111707516</v>
       </c>
       <c r="T16" t="n">
-        <v>0.46109005129891</v>
+        <v>0.0667804576667547</v>
       </c>
       <c r="U16" t="n">
-        <v>0.401037184439371</v>
+        <v>0.0590621840158838</v>
       </c>
       <c r="V16" t="n">
-        <v>0.41802628533567</v>
+        <v>0.0636531979724433</v>
       </c>
       <c r="W16" t="n">
-        <v>0.401031206756697</v>
+        <v>0.0749918900025293</v>
       </c>
       <c r="X16" t="n">
-        <v>0.389675226366766</v>
+        <v>0.0618415348067089</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.407478364065468</v>
+        <v>0.0873058234116813</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.425041546420855</v>
+        <v>0.0860833181643383</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.462523676403996</v>
+        <v>0.0978411761473004</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.443670606904371</v>
+        <v>0.0667049554703187</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.495962807082906</v>
+        <v>0.128489107091182</v>
       </c>
     </row>
     <row r="17">
@@ -1816,40 +1816,40 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.431770724694765</v>
+        <v>0.129286418183941</v>
       </c>
       <c r="S17" t="n">
-        <v>0.464859625358963</v>
+        <v>0.158594081558239</v>
       </c>
       <c r="T17" t="n">
-        <v>0.474826558191598</v>
+        <v>0.125259725373956</v>
       </c>
       <c r="U17" t="n">
-        <v>0.42861805821085</v>
+        <v>0.121639488108586</v>
       </c>
       <c r="V17" t="n">
-        <v>0.441351168896837</v>
+        <v>0.123331079455528</v>
       </c>
       <c r="W17" t="n">
-        <v>0.425247953725382</v>
+        <v>0.130802500358489</v>
       </c>
       <c r="X17" t="n">
-        <v>0.410401793928589</v>
+        <v>0.122567059734609</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.432704187175345</v>
+        <v>0.138268308221487</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.442999160867632</v>
+        <v>0.136837829753992</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.48135179620227</v>
+        <v>0.144258963220947</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.461997644556834</v>
+        <v>0.12614758403349</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.512809354991855</v>
+        <v>0.166512959986958</v>
       </c>
     </row>
     <row r="18">
@@ -1908,37 +1908,37 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.434022254175227</v>
+        <v>0.118536060547274</v>
       </c>
       <c r="T18" t="n">
-        <v>0.455711215353225</v>
+        <v>0.0688458001839817</v>
       </c>
       <c r="U18" t="n">
-        <v>0.388308990296936</v>
+        <v>0.0622863012806979</v>
       </c>
       <c r="V18" t="n">
-        <v>0.408933386670302</v>
+        <v>0.0677690328390317</v>
       </c>
       <c r="W18" t="n">
-        <v>0.389095202987308</v>
+        <v>0.0777633796618617</v>
       </c>
       <c r="X18" t="n">
-        <v>0.368251723650042</v>
+        <v>0.0661795079231812</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.396529402101378</v>
+        <v>0.0896065666408323</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.409711391699445</v>
+        <v>0.088140153112859</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.447621186078114</v>
+        <v>0.098534862011292</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.431556886530378</v>
+        <v>0.0695826978730883</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.486953049043291</v>
+        <v>0.128669664993796</v>
       </c>
     </row>
     <row r="19">
@@ -2000,34 +2000,34 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.469510579219687</v>
+        <v>0.113816244347884</v>
       </c>
       <c r="U19" t="n">
-        <v>0.422059621989569</v>
+        <v>0.109774562452237</v>
       </c>
       <c r="V19" t="n">
-        <v>0.436602091992067</v>
+        <v>0.113997919818671</v>
       </c>
       <c r="W19" t="n">
-        <v>0.424070133534215</v>
+        <v>0.120155042448284</v>
       </c>
       <c r="X19" t="n">
-        <v>0.406976060036668</v>
+        <v>0.113938768630662</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.429843090993662</v>
+        <v>0.128160248636858</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.439638446764323</v>
+        <v>0.126228935889178</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.477042045027545</v>
+        <v>0.134338359118226</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.460206738591941</v>
+        <v>0.114849470323178</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.509777056889614</v>
+        <v>0.158061619910578</v>
       </c>
     </row>
     <row r="20">
@@ -2092,31 +2092,31 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.437201775324893</v>
+        <v>0.0480741929804959</v>
       </c>
       <c r="V20" t="n">
-        <v>0.43825088331323</v>
+        <v>0.0554776368598545</v>
       </c>
       <c r="W20" t="n">
-        <v>0.42498069280805</v>
+        <v>0.0693830648097045</v>
       </c>
       <c r="X20" t="n">
-        <v>0.426384467420852</v>
+        <v>0.0535328078713246</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.430819685950487</v>
+        <v>0.0829085782120325</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.453035852648058</v>
+        <v>0.0792450939905031</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.476395172813228</v>
+        <v>0.0927722265946667</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.453884938225082</v>
+        <v>0.0606413934522272</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.516883424363873</v>
+        <v>0.125257802453954</v>
       </c>
     </row>
     <row r="21">
@@ -2184,28 +2184,28 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0.401727032415516</v>
+        <v>0.0483263227228575</v>
       </c>
       <c r="W21" t="n">
-        <v>0.381963038130753</v>
+        <v>0.0621892871628513</v>
       </c>
       <c r="X21" t="n">
-        <v>0.36035471349678</v>
+        <v>0.04629945060902</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.380288913010737</v>
+        <v>0.0769801800143249</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.395875926775022</v>
+        <v>0.0735634560531552</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.458877173706635</v>
+        <v>0.0871242242646103</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.437248585134438</v>
+        <v>0.0513049153346755</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.490302690734867</v>
+        <v>0.121081732140994</v>
       </c>
     </row>
     <row r="22">
@@ -2276,25 +2276,25 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0.394991418988884</v>
+        <v>0.0669186300354651</v>
       </c>
       <c r="X22" t="n">
-        <v>0.385209751703893</v>
+        <v>0.0518838366820723</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.401365663566607</v>
+        <v>0.0806263647410392</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.417820626608498</v>
+        <v>0.0783931666639061</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.458225923390315</v>
+        <v>0.091505938681734</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.435248427297284</v>
+        <v>0.0573879070147825</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.490387317333318</v>
+        <v>0.123795261230592</v>
       </c>
     </row>
     <row r="23">
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0.368889772198974</v>
+        <v>0.0642743359725935</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.383992662649111</v>
+        <v>0.0898726412813963</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.396802049799824</v>
+        <v>0.0880219834161381</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.437640784555472</v>
+        <v>0.0987570375864156</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.418163996387683</v>
+        <v>0.069892309372998</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.475655242125675</v>
+        <v>0.12955735564649</v>
       </c>
     </row>
     <row r="24">
@@ -2460,19 +2460,19 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.3739940232297</v>
+        <v>0.0797176756398639</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.394585062173184</v>
+        <v>0.0796877080044383</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.43935133931586</v>
+        <v>0.0925791379621851</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.404304302874065</v>
+        <v>0.0564685583432046</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.473379999265741</v>
+        <v>0.125186304825163</v>
       </c>
     </row>
     <row r="25">
@@ -2552,16 +2552,16 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.411093595764221</v>
+        <v>0.0989984784395071</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.450500972908315</v>
+        <v>0.111082387604785</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.430971546559136</v>
+        <v>0.0832125680416811</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.484474077222864</v>
+        <v>0.13942629126031</v>
       </c>
     </row>
     <row r="26">
@@ -2644,13 +2644,13 @@
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.461317885021639</v>
+        <v>0.107463839385987</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.438692718017681</v>
+        <v>0.0816054375790045</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.492433045587611</v>
+        <v>0.137236615171341</v>
       </c>
     </row>
     <row r="27">
@@ -2736,10 +2736,10 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.477027266406548</v>
+        <v>0.0923673386789604</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.519532937127371</v>
+        <v>0.143554910309036</v>
       </c>
     </row>
     <row r="28">
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.50512911481768</v>
+        <v>0.125230428831518</v>
       </c>
     </row>
     <row r="29">
@@ -2939,10 +2939,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
+        <v>225</v>
+      </c>
+      <c r="C1" t="n">
         <v>180</v>
-      </c>
-      <c r="C1" t="n">
-        <v>135</v>
       </c>
       <c r="D1" t="n">
         <v>135</v>
@@ -2963,7 +2963,7 @@
         <v>270</v>
       </c>
       <c r="J1" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="K1" t="n">
         <v>180</v>
@@ -2993,7 +2993,7 @@
         <v>90</v>
       </c>
       <c r="T1" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="U1" t="n">
         <v>90</v>
@@ -3005,7 +3005,7 @@
         <v>270</v>
       </c>
       <c r="X1" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="Y1" t="n">
         <v>270</v>
@@ -3014,7 +3014,7 @@
         <v>225</v>
       </c>
       <c r="AA1" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="AB1" t="n">
         <v>270</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="D2" t="n">
         <v>270</v>
@@ -3040,58 +3040,58 @@
         <v>315</v>
       </c>
       <c r="F2" t="n">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="G2" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K2" t="n">
         <v>315</v>
       </c>
       <c r="L2" t="n">
+        <v>270</v>
+      </c>
+      <c r="M2" t="n">
+        <v>180</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>90</v>
+      </c>
+      <c r="P2" t="n">
         <v>45</v>
       </c>
-      <c r="M2" t="n">
+      <c r="Q2" t="n">
         <v>225</v>
       </c>
-      <c r="N2" t="n">
-        <v>315</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>90</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>180</v>
-      </c>
       <c r="R2" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="S2" t="n">
         <v>225</v>
       </c>
       <c r="T2" t="n">
+        <v>135</v>
+      </c>
+      <c r="U2" t="n">
         <v>180</v>
       </c>
-      <c r="U2" t="n">
-        <v>135</v>
-      </c>
       <c r="V2" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="W2" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="X2" t="n">
         <v>270</v>
@@ -3100,7 +3100,7 @@
         <v>90</v>
       </c>
       <c r="Z2" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -3135,7 +3135,7 @@
         <v>270</v>
       </c>
       <c r="H3" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="I3" t="n">
         <v>90</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>225</v>
@@ -3156,16 +3156,16 @@
         <v>135</v>
       </c>
       <c r="O3" t="n">
+        <v>135</v>
+      </c>
+      <c r="P3" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>270</v>
+      </c>
+      <c r="R3" t="n">
         <v>180</v>
-      </c>
-      <c r="P3" t="n">
-        <v>135</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>225</v>
-      </c>
-      <c r="R3" t="n">
-        <v>225</v>
       </c>
       <c r="S3" t="n">
         <v>270</v>
@@ -3174,16 +3174,16 @@
         <v>180</v>
       </c>
       <c r="U3" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="V3" t="n">
         <v>135</v>
       </c>
       <c r="W3" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="X3" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="Y3" t="n">
         <v>135</v>
@@ -3198,7 +3198,7 @@
         <v>90</v>
       </c>
       <c r="AC3" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3218,13 +3218,13 @@
         <v>45</v>
       </c>
       <c r="F4" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="G4" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="H4" t="n">
-        <v>315</v>
+        <v>135</v>
       </c>
       <c r="I4" t="n">
         <v>135</v>
@@ -3242,19 +3242,19 @@
         <v>270</v>
       </c>
       <c r="N4" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="O4" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="P4" t="n">
         <v>135</v>
       </c>
       <c r="Q4" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="R4" t="n">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="S4" t="n">
         <v>315</v>
@@ -3263,7 +3263,7 @@
         <v>225</v>
       </c>
       <c r="U4" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="V4" t="n">
         <v>180</v>
@@ -3275,10 +3275,10 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="Z4" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="AA4" t="n">
         <v>90</v>
@@ -3287,7 +3287,7 @@
         <v>135</v>
       </c>
       <c r="AC4" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -3307,13 +3307,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="G5" t="n">
         <v>135</v>
       </c>
       <c r="H5" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I5" t="n">
         <v>45</v>
@@ -3322,31 +3322,31 @@
         <v>45</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="L5" t="n">
         <v>270</v>
       </c>
       <c r="M5" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>90</v>
+      </c>
+      <c r="P5" t="n">
         <v>45</v>
-      </c>
-      <c r="P5" t="n">
-        <v>135</v>
       </c>
       <c r="Q5" t="n">
         <v>225</v>
       </c>
       <c r="R5" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="T5" t="n">
         <v>180</v>
@@ -3355,22 +3355,22 @@
         <v>180</v>
       </c>
       <c r="V5" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="W5" t="n">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="X5" t="n">
         <v>270</v>
       </c>
       <c r="Y5" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
         <v>45</v>
@@ -3402,7 +3402,7 @@
         <v>45</v>
       </c>
       <c r="H6" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="I6" t="n">
         <v>270</v>
@@ -3411,13 +3411,13 @@
         <v>315</v>
       </c>
       <c r="K6" t="n">
+        <v>180</v>
+      </c>
+      <c r="L6" t="n">
         <v>135</v>
       </c>
-      <c r="L6" t="n">
-        <v>180</v>
-      </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
         <v>270</v>
@@ -3429,43 +3429,43 @@
         <v>270</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
+        <v>90</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>180</v>
+      </c>
+      <c r="V6" t="n">
+        <v>315</v>
+      </c>
+      <c r="W6" t="n">
+        <v>270</v>
+      </c>
+      <c r="X6" t="n">
         <v>135</v>
       </c>
-      <c r="T6" t="n">
-        <v>270</v>
-      </c>
-      <c r="U6" t="n">
-        <v>90</v>
-      </c>
-      <c r="V6" t="n">
-        <v>270</v>
-      </c>
-      <c r="W6" t="n">
-        <v>270</v>
-      </c>
-      <c r="X6" t="n">
-        <v>45</v>
-      </c>
       <c r="Y6" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="Z6" t="n">
         <v>225</v>
       </c>
       <c r="AA6" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="AB6" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="AC6" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7">
@@ -3497,7 +3497,7 @@
         <v>270</v>
       </c>
       <c r="J7" t="n">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="K7" t="n">
         <v>135</v>
@@ -3518,7 +3518,7 @@
         <v>225</v>
       </c>
       <c r="Q7" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="R7" t="n">
         <v>315</v>
@@ -3527,19 +3527,19 @@
         <v>90</v>
       </c>
       <c r="T7" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="U7" t="n">
         <v>45</v>
       </c>
       <c r="V7" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="W7" t="n">
         <v>225</v>
       </c>
       <c r="X7" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="n">
         <v>225</v>
@@ -3551,10 +3551,10 @@
         <v>135</v>
       </c>
       <c r="AB7" t="n">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>225</v>
@@ -3607,7 +3607,7 @@
         <v>315</v>
       </c>
       <c r="Q8" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="R8" t="n">
         <v>45</v>
@@ -3616,7 +3616,7 @@
         <v>180</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="U8" t="n">
         <v>135</v>
@@ -3628,22 +3628,22 @@
         <v>315</v>
       </c>
       <c r="X8" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>270</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB8" t="n">
         <v>315</v>
       </c>
-      <c r="Z8" t="n">
-        <v>270</v>
-      </c>
-      <c r="AA8" t="n">
+      <c r="AC8" t="n">
         <v>225</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -3684,7 +3684,7 @@
         <v>225</v>
       </c>
       <c r="M9" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="N9" t="n">
         <v>315</v>
@@ -3705,7 +3705,7 @@
         <v>180</v>
       </c>
       <c r="T9" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="U9" t="n">
         <v>135</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10">
@@ -3767,13 +3767,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="N10" t="n">
         <v>315</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="Q10" t="n">
         <v>180</v>
@@ -3791,7 +3791,7 @@
         <v>45</v>
       </c>
       <c r="S10" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="T10" t="n">
         <v>135</v>
@@ -3800,28 +3800,28 @@
         <v>135</v>
       </c>
       <c r="V10" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="W10" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="X10" t="n">
         <v>225</v>
       </c>
       <c r="Y10" t="n">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="Z10" t="n">
         <v>270</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>180</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11">
@@ -3865,7 +3865,7 @@
         <v>225</v>
       </c>
       <c r="N11" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="O11" t="n">
         <v>135</v>
@@ -3886,7 +3886,7 @@
         <v>180</v>
       </c>
       <c r="U11" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="V11" t="n">
         <v>135</v>
@@ -3898,7 +3898,7 @@
         <v>315</v>
       </c>
       <c r="Y11" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="Z11" t="n">
         <v>45</v>
@@ -3966,25 +3966,25 @@
         <v>315</v>
       </c>
       <c r="R12" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="S12" t="n">
         <v>315</v>
       </c>
       <c r="T12" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="U12" t="n">
         <v>270</v>
       </c>
       <c r="V12" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="W12" t="n">
         <v>90</v>
       </c>
       <c r="X12" t="n">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="Y12" t="n">
         <v>90</v>
@@ -3993,13 +3993,13 @@
         <v>45</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AB12" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="AC12" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="O13" t="n">
         <v>270</v>
@@ -4052,10 +4052,10 @@
         <v>225</v>
       </c>
       <c r="Q13" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="S13" t="n">
         <v>45</v>
@@ -4064,7 +4064,7 @@
         <v>315</v>
       </c>
       <c r="U13" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="V13" t="n">
         <v>270</v>
@@ -4073,7 +4073,7 @@
         <v>225</v>
       </c>
       <c r="X13" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="Y13" t="n">
         <v>225</v>
@@ -4082,7 +4082,7 @@
         <v>180</v>
       </c>
       <c r="AA13" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="AB13" t="n">
         <v>225</v>
@@ -4147,7 +4147,7 @@
         <v>90</v>
       </c>
       <c r="S14" t="n">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="T14" t="n">
         <v>45</v>
@@ -4156,25 +4156,25 @@
         <v>180</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>315</v>
+        <v>225</v>
       </c>
       <c r="Y14" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
         <v>315</v>
       </c>
       <c r="AA14" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="AB14" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
         <v>225</v>
@@ -4230,7 +4230,7 @@
         <v>315</v>
       </c>
       <c r="Q15" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="R15" t="n">
         <v>45</v>
@@ -4239,7 +4239,7 @@
         <v>135</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="U15" t="n">
         <v>135</v>
@@ -4251,7 +4251,7 @@
         <v>315</v>
       </c>
       <c r="X15" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="n">
         <v>315</v>
@@ -4266,7 +4266,7 @@
         <v>315</v>
       </c>
       <c r="AC15" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16">
@@ -4328,10 +4328,10 @@
         <v>180</v>
       </c>
       <c r="T16" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="U16" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="V16" t="n">
         <v>45</v>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -4352,7 +4352,7 @@
         <v>270</v>
       </c>
       <c r="AB16" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
         <v>270</v>
@@ -4414,37 +4414,37 @@
         <v>270</v>
       </c>
       <c r="S17" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="U17" t="n">
         <v>315</v>
       </c>
       <c r="V17" t="n">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="W17" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="X17" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="Y17" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="Z17" t="n">
         <v>135</v>
       </c>
       <c r="AA17" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="AB17" t="n">
         <v>180</v>
       </c>
       <c r="AC17" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18">
@@ -4506,10 +4506,10 @@
         <v>90</v>
       </c>
       <c r="T18" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="V18" t="n">
         <v>315</v>
@@ -4518,7 +4518,7 @@
         <v>270</v>
       </c>
       <c r="X18" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="Y18" t="n">
         <v>270</v>
@@ -4533,7 +4533,7 @@
         <v>270</v>
       </c>
       <c r="AC18" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
@@ -4598,7 +4598,7 @@
         <v>270</v>
       </c>
       <c r="U19" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="V19" t="n">
         <v>225</v>
@@ -4610,19 +4610,19 @@
         <v>45</v>
       </c>
       <c r="Y19" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="Z19" t="n">
         <v>135</v>
       </c>
       <c r="AA19" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="AB19" t="n">
         <v>180</v>
       </c>
       <c r="AC19" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
@@ -4687,28 +4687,28 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="V20" t="n">
         <v>315</v>
       </c>
       <c r="W20" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="X20" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="Y20" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="Z20" t="n">
+        <v>225</v>
+      </c>
+      <c r="AA20" t="n">
         <v>180</v>
       </c>
-      <c r="AA20" t="n">
-        <v>225</v>
-      </c>
       <c r="AB20" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="AC20" t="n">
         <v>180</v>
@@ -4779,28 +4779,28 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="W21" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="X21" t="n">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="Y21" t="n">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="Z21" t="n">
         <v>135</v>
       </c>
       <c r="AA21" t="n">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="AB21" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="AC21" t="n">
-        <v>45</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22">
@@ -4874,7 +4874,7 @@
         <v>315</v>
       </c>
       <c r="X22" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="Y22" t="n">
         <v>315</v>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -4975,10 +4975,10 @@
         <v>270</v>
       </c>
       <c r="AB23" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24">
@@ -5153,7 +5153,7 @@
         <v>270</v>
       </c>
       <c r="AB25" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
         <v>270</v>
@@ -5423,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
